--- a/done.xlsx
+++ b/done.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>a21cn.py</t>
   </si>
@@ -319,9 +319,6 @@
     <t>云岩区人民政府网</t>
   </si>
   <si>
-    <t>zhihuTopic.py</t>
-  </si>
-  <si>
     <t>知乎</t>
   </si>
   <si>
@@ -329,6 +326,26 @@
   </si>
   <si>
     <t>遵义论坛</t>
+  </si>
+  <si>
+    <t>zhihu.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiyuanhui.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾猿网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huanqiukexue.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环球科学网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -677,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,18 +1116,34 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
-        <v>104</v>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
